--- a/biology/Médecine/Ferruccio_Fazio/Ferruccio_Fazio.xlsx
+++ b/biology/Médecine/Ferruccio_Fazio/Ferruccio_Fazio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ferruccio Fazio (né le 7 août 1944 à Garessio, dans la province de Coni, au Piémont) est une personnalité politique italienne, professeur d'université, médecin et maire de Garessio depuis 2019.
@@ -513,7 +525,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Silvio Berlusconi annonce le 27 décembre 2008 à des journalistes que Ferruccio Fazio deviendra bientôt ministre de la Santé à part entière (il est alors secrétaire d'État depuis mai 2008). Le projet de décret-loi est adopté en conseil des ministres le 8 mai 2009 et il est promu ministre adjoint le même jour en attendant d'être nommé ministre à part entière le 15 décembre 2009.
 Depuis mai 2019 il est élu maire de Garessio, village de sa naissance.
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Avant le 12 mai 2008
-Professeur de diagnostic par images et radiothérapie, faculté de médecine et chirurgie, université de Milan-Bicocca
+          <t>Avant le 12 mai 2008</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Professeur de diagnostic par images et radiothérapie, faculté de médecine et chirurgie, université de Milan-Bicocca
 Directeur des services de médecine nucléaire et de radiothérapie, Institut scientifique H.S. Raffaele, Milan,
 Directeur de l'Institut des Bio-images et de Physiologie moléculaire du CNR, Milan,
 Directeur de l'Ecole de spécialisation en radio-diagnostic, Université de Milan-Bicocca.
@@ -580,10 +599,12 @@
           <t>Parcours politique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>depuis 2019 : Maire de Garessio
-2009-2011 : Ministre de la Santé[1]</t>
+2009-2011 : Ministre de la Santé</t>
         </is>
       </c>
     </row>
